--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det2  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det2  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44.62300474557222</v>
+        <v>40.35273080373261</v>
       </c>
       <c r="D2" t="n">
         <v>0.0007432820064133916</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05929019675229672</v>
+        <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>36.37816814588862</v>
+        <v>26.88718205824783</v>
       </c>
       <c r="G2" t="n">
-        <v>35.89946092308492</v>
+        <v>20.9173624646147</v>
       </c>
       <c r="H2" t="n">
-        <v>36.86035232952185</v>
+        <v>32.34948552140182</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007265800577770748</v>
+        <v>0.0007645371881185627</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006248362897979421</v>
+        <v>0.0006267610152500065</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0009246698431684726</v>
+        <v>0.0009715678201341332</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05296287604089168</v>
+        <v>0.04904985511492113</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04836686195891654</v>
+        <v>0.04258367460904983</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05825555729660578</v>
+        <v>0.05428089295621556</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07285308163288276</v>
+        <v>0.2086306804287965</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06607489139161604</v>
+        <v>0.0008641253673257766</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08262047820049408</v>
+        <v>0.541635818925212</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06795749394541022</v>
+        <v>0.1934749701365729</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06386867317376338</v>
+        <v>0.0007903867403991788</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07266855082868844</v>
+        <v>0.5032470635380228</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06991414238998163</v>
+        <v>0.2191109099153959</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06626366541652338</v>
+        <v>0.000923110736303278</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0736949952950281</v>
+        <v>0.5675610581032168</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40.35273080373261</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0007432820064133916</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05768901818751787</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.09581273867663</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20.91822658998202</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32.89112134032703</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1942395073246914</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001417147755649185</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.504218631358157</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.268160765030317</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0435067853453531</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6218419510594324</v>
       </c>
     </row>
   </sheetData>

--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det2  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det2  - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>26.88718205824783</v>
+        <v>25.46870604682536</v>
       </c>
       <c r="G2" t="n">
-        <v>20.9173624646147</v>
+        <v>19.4257608447074</v>
       </c>
       <c r="H2" t="n">
-        <v>32.34948552140182</v>
+        <v>31.82218155093293</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007645371881185627</v>
+        <v>0.0007534806024381183</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006267610152500065</v>
+        <v>0.0006187154376364043</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0009715678201341332</v>
+        <v>0.0009688262215807502</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04904985511492113</v>
+        <v>0.04812955862422588</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04258367460904983</v>
+        <v>0.04111917822730791</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05428089295621556</v>
+        <v>0.05407026968748316</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2086306804287965</v>
+        <v>0.2254523848393185</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0008641253673257766</v>
+        <v>0.002490236783087344</v>
       </c>
       <c r="H3" t="n">
-        <v>0.541635818925212</v>
+        <v>0.5425304215115977</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1934749701365729</v>
+        <v>0.2091086049311342</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0007903867403991788</v>
+        <v>0.002271686246303623</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5032470635380228</v>
+        <v>0.5046221821287529</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2191109099153959</v>
+        <v>0.2367443580403076</v>
       </c>
       <c r="M3" t="n">
-        <v>0.000923110736303278</v>
+        <v>0.002668774200246543</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5675610581032168</v>
+        <v>0.5677250954792478</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F4" t="n">
-        <v>27.09581273867663</v>
+        <v>25.69415843166468</v>
       </c>
       <c r="G4" t="n">
-        <v>20.91822658998202</v>
+        <v>19.42825108149049</v>
       </c>
       <c r="H4" t="n">
-        <v>32.89112134032703</v>
+        <v>32.36471197244453</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1942395073246914</v>
+        <v>0.2098620855335723</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001417147755649185</v>
+        <v>0.002890401683940027</v>
       </c>
       <c r="K4" t="n">
-        <v>0.504218631358157</v>
+        <v>0.5055910083503335</v>
       </c>
       <c r="L4" t="n">
-        <v>0.268160765030317</v>
+        <v>0.2848739166645335</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0435067853453531</v>
+        <v>0.04378795242755446</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6218419510594324</v>
+        <v>0.621795365166731</v>
       </c>
     </row>
   </sheetData>
